--- a/Main/SASdata/single_moments.xlsx
+++ b/Main/SASdata/single_moments.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Desktop\github\Main\SASdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Desktop\Speciale_retirement\Main\SASdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A52B56-7CF0-4428-9234-15964A343273}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D981EB8E-C91A-40E3-8DA4-EE533F52A82B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4B0926C6-204C-4A42-9FCD-0A17D8A10150}"/>
   </bookViews>
@@ -58,6 +58,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -106,7 +109,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,7 +427,7 @@
   <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +437,7 @@
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -477,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="4">
-        <v>0.113314822710149</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>0.44845958408577802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -500,10 +503,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="4">
-        <v>0.12709401871204901</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>0.452011034901599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -523,10 +526,10 @@
         <v>2</v>
       </c>
       <c r="F4" s="4">
-        <v>3.16515616926119E-2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>0.12504628475823501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -546,10 +549,10 @@
         <v>3</v>
       </c>
       <c r="F5" s="4">
-        <v>3.1479440406231601E-2</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>0.11608748807483101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -569,10 +572,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="4">
-        <v>0.212033816642694</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>0.72402298554559996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -592,10 +595,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="4">
-        <v>0.233400843306631</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>0.77473519062084495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -615,10 +618,10 @@
         <v>2</v>
       </c>
       <c r="F8" s="4">
-        <v>5.3345494676055198E-2</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>0.19795300729191601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -638,10 +641,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="4">
-        <v>6.5309503210883899E-2</v>
+        <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>0.219678129222351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -661,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="4">
-        <v>0.15998094755630601</v>
+        <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>0.61074603751038303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -684,10 +687,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="4">
-        <v>0.18692327131443101</v>
+        <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>0.64134717555436105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -707,10 +710,10 @@
         <v>2</v>
       </c>
       <c r="F12" s="4">
-        <v>4.3804904052472803E-2</v>
+        <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>0.16542546682233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -730,10 +733,10 @@
         <v>3</v>
       </c>
       <c r="F13" s="4">
-        <v>4.58923420468429E-2</v>
+        <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>0.159102826195191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -753,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="4">
-        <v>0.29042261872760999</v>
+        <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>0.94015920932864006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -776,10 +779,10 @@
         <v>1</v>
       </c>
       <c r="F15" s="4">
-        <v>0.30911578246302501</v>
+        <v>0</v>
       </c>
       <c r="G15" s="4">
-        <v>0.97625767717550704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -799,10 +802,10 @@
         <v>2</v>
       </c>
       <c r="F16" s="4">
-        <v>6.8101122794528096E-2</v>
+        <v>0</v>
       </c>
       <c r="G16" s="4">
-        <v>0.24068843135812901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -822,10 +825,10 @@
         <v>3</v>
       </c>
       <c r="F17" s="4">
-        <v>8.5596106455487306E-2</v>
+        <v>0</v>
       </c>
       <c r="G17" s="4">
-        <v>0.26979483948289301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -845,10 +848,10 @@
         <v>0</v>
       </c>
       <c r="F18" s="4">
-        <v>0.23163312362470001</v>
+        <v>0</v>
       </c>
       <c r="G18" s="4">
-        <v>0.84161303303454604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -868,10 +871,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="4">
-        <v>0.289514736927868</v>
+        <v>0</v>
       </c>
       <c r="G19" s="4">
-        <v>0.94022533414520804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -891,10 +894,10 @@
         <v>2</v>
       </c>
       <c r="F20" s="4">
-        <v>28.398037573940599</v>
+        <v>0.23636427246964981</v>
       </c>
       <c r="G20" s="4">
-        <v>1.2568894584995201</v>
+        <v>0.42484844729567151</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -914,10 +917,10 @@
         <v>3</v>
       </c>
       <c r="F21" s="4">
-        <v>15.236324497459499</v>
+        <v>8.9645587213342592E-2</v>
       </c>
       <c r="G21" s="4">
-        <v>5.8954540602357799</v>
+        <v>0.28567333775926229</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -937,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="4">
-        <v>0.398360065538506</v>
+        <v>0</v>
       </c>
       <c r="G22" s="4">
-        <v>1.2040250232523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -960,10 +963,10 @@
         <v>1</v>
       </c>
       <c r="F23" s="4">
-        <v>0.44758902089029501</v>
+        <v>0</v>
       </c>
       <c r="G23" s="4">
-        <v>1.30331477539763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -983,10 +986,10 @@
         <v>2</v>
       </c>
       <c r="F24" s="4">
-        <v>33.6021172062026</v>
+        <v>0.33557686580499141</v>
       </c>
       <c r="G24" s="4">
-        <v>2.0235227514315399</v>
+        <v>0.47219173324137098</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1006,10 +1009,10 @@
         <v>3</v>
       </c>
       <c r="F25" s="4">
-        <v>22.253133065333099</v>
+        <v>0.1098919095971176</v>
       </c>
       <c r="G25" s="4">
-        <v>4.8243992035682499</v>
+        <v>0.31275498045949091</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1029,10 +1032,10 @@
         <v>0</v>
       </c>
       <c r="F26" s="4">
-        <v>0.37526311984562299</v>
+        <v>0</v>
       </c>
       <c r="G26" s="4">
-        <v>1.2111506091858699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1052,10 +1055,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="4">
-        <v>0.465571175020358</v>
+        <v>0</v>
       </c>
       <c r="G27" s="4">
-        <v>1.37329110855791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1075,10 +1078,10 @@
         <v>2</v>
       </c>
       <c r="F28" s="4">
-        <v>19.078666719560001</v>
+        <v>0.1171131012683876</v>
       </c>
       <c r="G28" s="4">
-        <v>12.061596845346999</v>
+        <v>0.32155500739327308</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1098,10 +1101,10 @@
         <v>3</v>
       </c>
       <c r="F29" s="4">
-        <v>13.0290921946344</v>
+        <v>5.9550793323717287E-2</v>
       </c>
       <c r="G29" s="4">
-        <v>7.3842090062297503</v>
+        <v>0.23665269138176559</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1121,10 +1124,10 @@
         <v>0</v>
       </c>
       <c r="F30" s="4">
-        <v>0.60495493525461397</v>
+        <v>0</v>
       </c>
       <c r="G30" s="4">
-        <v>1.61232843809056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1144,10 +1147,10 @@
         <v>1</v>
       </c>
       <c r="F31" s="4">
-        <v>0.67107490228706901</v>
+        <v>0</v>
       </c>
       <c r="G31" s="4">
-        <v>1.73289564025948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1167,10 +1170,10 @@
         <v>2</v>
       </c>
       <c r="F32" s="4">
-        <v>20.455005270781399</v>
+        <v>0.1532841954210423</v>
       </c>
       <c r="G32" s="4">
-        <v>14.642325698984299</v>
+        <v>0.36026122585585868</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1190,10 +1193,10 @@
         <v>3</v>
       </c>
       <c r="F33" s="4">
-        <v>16.736378313622598</v>
+        <v>9.8956320061847694E-2</v>
       </c>
       <c r="G33" s="4">
-        <v>9.8087825952017003</v>
+        <v>0.29860336029868262</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1213,10 +1216,10 @@
         <v>0</v>
       </c>
       <c r="F34" s="4">
-        <v>0.70817043575055405</v>
+        <v>0</v>
       </c>
       <c r="G34" s="4">
-        <v>1.8062470888184701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1236,10 +1239,10 @@
         <v>1</v>
       </c>
       <c r="F35" s="4">
-        <v>0.82365346557501795</v>
+        <v>0</v>
       </c>
       <c r="G35" s="4">
-        <v>2.0463394112017701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1259,10 +1262,10 @@
         <v>2</v>
       </c>
       <c r="F36" s="4">
-        <v>22.9205685824945</v>
+        <v>0.17417257109579731</v>
       </c>
       <c r="G36" s="4">
-        <v>21.8852356773221</v>
+        <v>0.37925781016832971</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1282,10 +1285,10 @@
         <v>3</v>
       </c>
       <c r="F37" s="4">
-        <v>18.761765425758199</v>
+        <v>0.1030875223271243</v>
       </c>
       <c r="G37" s="4">
-        <v>12.237399551347201</v>
+        <v>0.30407315742692398</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1305,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="F38" s="4">
-        <v>1.0339087454876701</v>
+        <v>0</v>
       </c>
       <c r="G38" s="4">
-        <v>2.2048754468926202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1328,10 +1331,10 @@
         <v>1</v>
       </c>
       <c r="F39" s="4">
-        <v>1.15392153884246</v>
+        <v>0</v>
       </c>
       <c r="G39" s="4">
-        <v>2.4264117971001302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1351,10 +1354,10 @@
         <v>2</v>
       </c>
       <c r="F40" s="4">
-        <v>21.5074117624604</v>
+        <v>0.1479683765398051</v>
       </c>
       <c r="G40" s="4">
-        <v>23.6876234292133</v>
+        <v>0.35506863573678188</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1374,10 +1377,10 @@
         <v>3</v>
       </c>
       <c r="F41" s="4">
-        <v>20.7364926987911</v>
+        <v>0.1228373702422145</v>
       </c>
       <c r="G41" s="4">
-        <v>16.396443457146699</v>
+        <v>0.32825043901599221</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1397,10 +1400,10 @@
         <v>0</v>
       </c>
       <c r="F42" s="4">
-        <v>1.68197727126679</v>
+        <v>0</v>
       </c>
       <c r="G42" s="4">
-        <v>2.7255127982054899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1420,10 +1423,10 @@
         <v>1</v>
       </c>
       <c r="F43" s="4">
-        <v>1.6525484254673499</v>
+        <v>0</v>
       </c>
       <c r="G43" s="4">
-        <v>2.9876926965999702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1443,10 +1446,10 @@
         <v>2</v>
       </c>
       <c r="F44" s="4">
-        <v>12.499421079196299</v>
+        <v>0.13412473423104179</v>
       </c>
       <c r="G44" s="4">
-        <v>19.1661852324332</v>
+        <v>0.34078628185197568</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1466,10 +1469,10 @@
         <v>3</v>
       </c>
       <c r="F45" s="4">
-        <v>13.449115831812801</v>
+        <v>0.13634925656437841</v>
       </c>
       <c r="G45" s="4">
-        <v>13.0302495503554</v>
+        <v>0.34315905466520868</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1489,10 +1492,10 @@
         <v>0</v>
       </c>
       <c r="F46" s="4">
-        <v>2.2518347790256001</v>
+        <v>0</v>
       </c>
       <c r="G46" s="4">
-        <v>3.1489059074335901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1512,10 +1515,10 @@
         <v>1</v>
       </c>
       <c r="F47" s="4">
-        <v>2.3831075687645402</v>
+        <v>0</v>
       </c>
       <c r="G47" s="4">
-        <v>3.5778499796429002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1535,10 +1538,10 @@
         <v>2</v>
       </c>
       <c r="F48" s="4">
-        <v>10.932490973145301</v>
+        <v>0.1178844519966015</v>
       </c>
       <c r="G48" s="4">
-        <v>19.372304099546401</v>
+        <v>0.32247125139159688</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1558,10 +1561,10 @@
         <v>3</v>
       </c>
       <c r="F49" s="4">
-        <v>13.2797561347555</v>
+        <v>0.1362389515391649</v>
       </c>
       <c r="G49" s="4">
-        <v>15.8327941620587</v>
+        <v>0.34304212514307042</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1581,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="F50" s="4">
-        <v>5.70638037993381</v>
+        <v>0</v>
       </c>
       <c r="G50" s="4">
-        <v>3.9820514374898401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1604,10 +1607,10 @@
         <v>1</v>
       </c>
       <c r="F51" s="4">
-        <v>4.4051025604608904</v>
+        <v>0</v>
       </c>
       <c r="G51" s="4">
-        <v>4.3346077388647997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1627,10 +1630,10 @@
         <v>2</v>
       </c>
       <c r="F52" s="4">
-        <v>6.4642227162591501</v>
+        <v>5.8903386379063283E-2</v>
       </c>
       <c r="G52" s="4">
-        <v>13.95907212286</v>
+        <v>0.23544378830655541</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1650,10 +1653,10 @@
         <v>3</v>
       </c>
       <c r="F53" s="4">
-        <v>9.0978372873819406</v>
+        <v>7.7411167512690351E-2</v>
       </c>
       <c r="G53" s="4">
-        <v>11.524490825066501</v>
+        <v>0.26724273359066758</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1673,10 +1676,10 @@
         <v>0</v>
       </c>
       <c r="F54" s="4">
-        <v>6.6554277149566703</v>
+        <v>0</v>
       </c>
       <c r="G54" s="4">
-        <v>4.4435611376833704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1696,10 +1699,10 @@
         <v>1</v>
       </c>
       <c r="F55" s="4">
-        <v>6.0407708725053402</v>
+        <v>0</v>
       </c>
       <c r="G55" s="4">
-        <v>5.1511026850682597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -1719,10 +1722,10 @@
         <v>2</v>
       </c>
       <c r="F56" s="4">
-        <v>5.2738062146622999</v>
+        <v>5.1798339993851833E-2</v>
       </c>
       <c r="G56" s="4">
-        <v>13.4408656402851</v>
+        <v>0.2216196560951513</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1742,10 +1745,10 @@
         <v>3</v>
       </c>
       <c r="F57" s="4">
-        <v>7.88238013563815</v>
+        <v>7.0658682634730532E-2</v>
       </c>
       <c r="G57" s="4">
-        <v>12.7834424505672</v>
+        <v>0.25625384524540312</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -1765,10 +1768,10 @@
         <v>0</v>
       </c>
       <c r="F58" s="4">
-        <v>24.8080703509012</v>
+        <v>0.66281755196304848</v>
       </c>
       <c r="G58" s="4">
-        <v>7.2435876995091499</v>
+        <v>0.47274776019856513</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -1788,10 +1791,10 @@
         <v>1</v>
       </c>
       <c r="F59" s="4">
-        <v>17.499315906532701</v>
+        <v>0.32067510548523209</v>
       </c>
       <c r="G59" s="4">
-        <v>6.6772585358826699</v>
+        <v>0.46673609481940359</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -1811,10 +1814,10 @@
         <v>2</v>
       </c>
       <c r="F60" s="4">
-        <v>3.06113629819952</v>
+        <v>0.1364158529580701</v>
       </c>
       <c r="G60" s="4">
-        <v>8.6095463188534307</v>
+        <v>0.34322961413577402</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -1834,10 +1837,10 @@
         <v>3</v>
       </c>
       <c r="F61" s="4">
-        <v>5.6009578862055198</v>
+        <v>0.17128603104212861</v>
       </c>
       <c r="G61" s="4">
-        <v>8.7946367019413891</v>
+        <v>0.37675871139492401</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -1857,10 +1860,10 @@
         <v>0</v>
       </c>
       <c r="F62" s="4">
-        <v>25.7130614842239</v>
+        <v>0.78217821782178221</v>
       </c>
       <c r="G62" s="4">
-        <v>9.63504758844803</v>
+        <v>0.41276561555793728</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -1880,10 +1883,10 @@
         <v>1</v>
       </c>
       <c r="F63" s="4">
-        <v>19.393245975357001</v>
+        <v>0.5220588235294118</v>
       </c>
       <c r="G63" s="4">
-        <v>8.4457554815948797</v>
+        <v>0.49951317130231743</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -1903,10 +1906,10 @@
         <v>2</v>
       </c>
       <c r="F64" s="4">
-        <v>2.4226602016437</v>
+        <v>0.1231530139103555</v>
       </c>
       <c r="G64" s="4">
-        <v>8.1122431511355995</v>
+        <v>0.3286127646260128</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -1926,10 +1929,10 @@
         <v>3</v>
       </c>
       <c r="F65" s="4">
-        <v>4.4132742452854696</v>
+        <v>0.1539641943734015</v>
       </c>
       <c r="G65" s="4">
-        <v>8.9991775235549003</v>
+        <v>0.36091442368565851</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -1949,10 +1952,10 @@
         <v>0</v>
       </c>
       <c r="F66" s="4">
-        <v>22.669123336782299</v>
+        <v>0.1324503311258278</v>
       </c>
       <c r="G66" s="4">
-        <v>15.279675363872601</v>
+        <v>0.33897970575019137</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -1972,10 +1975,10 @@
         <v>1</v>
       </c>
       <c r="F67" s="4">
-        <v>18.456138725881601</v>
+        <v>0.16058394160583939</v>
       </c>
       <c r="G67" s="4">
-        <v>11.334399418357499</v>
+        <v>0.36714675445136619</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -1995,10 +1998,10 @@
         <v>2</v>
       </c>
       <c r="F68" s="4">
-        <v>2.6960387820759601</v>
+        <v>5.8367404483293389E-2</v>
       </c>
       <c r="G68" s="4">
-        <v>9.0455591297713802</v>
+        <v>0.234436879729229</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2018,10 +2021,10 @@
         <v>3</v>
       </c>
       <c r="F69" s="4">
-        <v>6.0869948036331696</v>
+        <v>0.10096153846153851</v>
       </c>
       <c r="G69" s="4">
-        <v>10.707984793695701</v>
+        <v>0.30127778911333269</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2041,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="4">
-        <v>21.129119862303298</v>
+        <v>9.3057607090103397E-2</v>
       </c>
       <c r="G70" s="4">
-        <v>17.108577636777301</v>
+        <v>0.29051314746972701</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2064,10 +2067,10 @@
         <v>1</v>
       </c>
       <c r="F71" s="4">
-        <v>17.808718286127402</v>
+        <v>0.1098901098901099</v>
       </c>
       <c r="G71" s="4">
-        <v>13.299640117755899</v>
+        <v>0.31275273562104849</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2087,10 +2090,10 @@
         <v>2</v>
       </c>
       <c r="F72" s="4">
-        <v>1.9965511964718901</v>
+        <v>3.9512619669277632E-2</v>
       </c>
       <c r="G72" s="4">
-        <v>8.0838229112678199</v>
+        <v>0.19481112020659561</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2110,10 +2113,10 @@
         <v>3</v>
       </c>
       <c r="F73" s="4">
-        <v>4.2944465064307504</v>
+        <v>8.1931236283833211E-2</v>
       </c>
       <c r="G73" s="4">
-        <v>10.012866552243301</v>
+        <v>0.27425992927300902</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2133,10 +2136,10 @@
         <v>0</v>
       </c>
       <c r="F74" s="4">
-        <v>17.911606635333101</v>
+        <v>7.7348066298342538E-2</v>
       </c>
       <c r="G74" s="4">
-        <v>19.651722619824</v>
+        <v>0.26714292604942719</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2156,10 +2159,10 @@
         <v>1</v>
       </c>
       <c r="F75" s="4">
-        <v>18.072429048834699</v>
+        <v>2.469135802469136E-2</v>
       </c>
       <c r="G75" s="4">
-        <v>15.857178118423599</v>
+        <v>0.15518277888859919</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2179,10 +2182,10 @@
         <v>2</v>
       </c>
       <c r="F76" s="4">
-        <v>2.1763479205918301</v>
+        <v>2.8053204353083439E-2</v>
       </c>
       <c r="G76" s="4">
-        <v>9.0025617700362801</v>
+        <v>0.16512486814107549</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2202,10 +2205,10 @@
         <v>3</v>
       </c>
       <c r="F77" s="4">
-        <v>5.8941337531603804</v>
+        <v>7.2625698324022353E-2</v>
       </c>
       <c r="G77" s="4">
-        <v>12.297517177859101</v>
+        <v>0.2595211094823896</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2225,10 +2228,10 @@
         <v>0</v>
       </c>
       <c r="F78" s="4">
-        <v>16.133128618023001</v>
+        <v>4.1769041769041768E-2</v>
       </c>
       <c r="G78" s="4">
-        <v>20.086985822121701</v>
+        <v>0.2000609630056244</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2248,10 +2251,10 @@
         <v>1</v>
       </c>
       <c r="F79" s="4">
-        <v>15.870854999572501</v>
+        <v>7.2727272727272724E-2</v>
       </c>
       <c r="G79" s="4">
-        <v>16.745126293368699</v>
+        <v>0.25968830649246732</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2271,10 +2274,10 @@
         <v>2</v>
       </c>
       <c r="F80" s="4">
-        <v>1.4716324476732601</v>
+        <v>1.9210876311511749E-2</v>
       </c>
       <c r="G80" s="4">
-        <v>7.5606089824582696</v>
+        <v>0.13726550383419561</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2294,10 +2297,10 @@
         <v>3</v>
       </c>
       <c r="F81" s="4">
-        <v>3.9276489524410301</v>
+        <v>5.0995024875621887E-2</v>
       </c>
       <c r="G81" s="4">
-        <v>10.7761773382879</v>
+        <v>0.21998757308892841</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -2317,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="F82" s="4">
-        <v>12.0820697959838</v>
+        <v>0</v>
       </c>
       <c r="G82" s="4">
-        <v>20.318630663219601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -2340,10 +2343,10 @@
         <v>1</v>
       </c>
       <c r="F83" s="4">
-        <v>15.0722246133494</v>
+        <v>0.12</v>
       </c>
       <c r="G83" s="4">
-        <v>18.9510469663126</v>
+        <v>0.32496153618543838</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -2363,10 +2366,10 @@
         <v>2</v>
       </c>
       <c r="F84" s="4">
-        <v>1.47245214316881</v>
+        <v>1.972685887708649E-2</v>
       </c>
       <c r="G84" s="4">
-        <v>8.0895235051957197</v>
+        <v>0.13906009462074309</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -2386,10 +2389,10 @@
         <v>3</v>
       </c>
       <c r="F85" s="4">
-        <v>5.0083797677258399</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="G85" s="4">
-        <v>13.0114474635444</v>
+        <v>0.22329687826943609</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -2409,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="F86" s="4">
-        <v>10.6585242854082</v>
+        <v>4.5112781954887222E-2</v>
       </c>
       <c r="G86" s="4">
-        <v>19.733441009577</v>
+        <v>0.20755148483973321</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -2432,10 +2435,10 @@
         <v>1</v>
       </c>
       <c r="F87" s="4">
-        <v>12.764881006642501</v>
+        <v>0</v>
       </c>
       <c r="G87" s="4">
-        <v>18.619613903689402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -2455,10 +2458,10 @@
         <v>2</v>
       </c>
       <c r="F88" s="4">
-        <v>1.0003205441815901</v>
+        <v>1.4627011214041931E-2</v>
       </c>
       <c r="G88" s="4">
-        <v>6.7097046139049201</v>
+        <v>0.1200544116514933</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -2478,10 +2481,10 @@
         <v>3</v>
       </c>
       <c r="F89" s="4">
-        <v>3.1382087883324199</v>
+        <v>3.6900369003690037E-2</v>
       </c>
       <c r="G89" s="4">
-        <v>10.7446430405197</v>
+        <v>0.1885171922427277</v>
       </c>
     </row>
   </sheetData>

--- a/Main/SASdata/single_moments.xlsx
+++ b/Main/SASdata/single_moments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Desktop\Speciale_retirement\Main\SASdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D981EB8E-C91A-40E3-8DA4-EE533F52A82B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE02F39-5903-4618-8F52-6070C204B98C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4B0926C6-204C-4A42-9FCD-0A17D8A10150}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -109,7 +109,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,6 +438,7 @@
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">

--- a/Main/SASdata/single_moments.xlsx
+++ b/Main/SASdata/single_moments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Desktop\Speciale_retirement\Main\SASdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE02F39-5903-4618-8F52-6070C204B98C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B922220-291E-42F8-92ED-C296CAC21544}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4B0926C6-204C-4A42-9FCD-0A17D8A10150}"/>
   </bookViews>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD2B8AE-94EE-4382-9540-84599FDFEDB4}">
   <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,10 +481,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="4">
-        <v>0</v>
+        <v>2.4011299435028249E-2</v>
       </c>
       <c r="G2" s="4">
-        <v>0</v>
+        <v>0.15308414984729701</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -504,10 +504,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="4">
-        <v>0</v>
+        <v>1.2244897959183669E-2</v>
       </c>
       <c r="G3" s="4">
-        <v>0</v>
+        <v>0.109977090492306</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -527,10 +527,10 @@
         <v>2</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>3.7271387709109818E-3</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>6.093641938523589E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -550,10 +550,10 @@
         <v>3</v>
       </c>
       <c r="F5" s="4">
-        <v>0</v>
+        <v>5.1531634697967359E-3</v>
       </c>
       <c r="G5" s="4">
-        <v>0</v>
+        <v>7.1600337820783289E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -573,10 +573,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="4">
-        <v>0</v>
+        <v>1.2259194395796849E-2</v>
       </c>
       <c r="G6" s="4">
-        <v>0</v>
+        <v>0.1100404768644834</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -596,10 +596,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="4">
-        <v>0</v>
+        <v>4.1753653444676414E-3</v>
       </c>
       <c r="G7" s="4">
-        <v>0</v>
+        <v>6.4482025935200429E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -619,10 +619,10 @@
         <v>2</v>
       </c>
       <c r="F8" s="4">
-        <v>0</v>
+        <v>6.5972791345681034E-3</v>
       </c>
       <c r="G8" s="4">
-        <v>0</v>
+        <v>8.0955265687839562E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -642,10 +642,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="4">
-        <v>0</v>
+        <v>1.0890151515151519E-2</v>
       </c>
       <c r="G9" s="4">
-        <v>0</v>
+        <v>0.1037861075246998</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="4">
-        <v>0</v>
+        <v>2.0558002936857559E-2</v>
       </c>
       <c r="G10" s="4">
-        <v>0</v>
+        <v>0.14189915944820011</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -688,10 +688,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="4">
-        <v>0</v>
+        <v>8.658008658008658E-3</v>
       </c>
       <c r="G11" s="4">
-        <v>0</v>
+        <v>9.2644738350790887E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -711,10 +711,10 @@
         <v>2</v>
       </c>
       <c r="F12" s="4">
-        <v>0</v>
+        <v>1.1840354767184039E-2</v>
       </c>
       <c r="G12" s="4">
-        <v>0</v>
+        <v>0.1081672814032564</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -734,10 +734,10 @@
         <v>3</v>
       </c>
       <c r="F13" s="4">
-        <v>0</v>
+        <v>3.562945368171022E-3</v>
       </c>
       <c r="G13" s="4">
-        <v>0</v>
+        <v>5.9583980972023422E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -757,10 +757,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="4">
-        <v>0</v>
+        <v>1.111111111111111E-2</v>
       </c>
       <c r="G14" s="4">
-        <v>0</v>
+        <v>0.1048220125784067</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -780,10 +780,10 @@
         <v>1</v>
       </c>
       <c r="F15" s="4">
-        <v>0</v>
+        <v>6.7415730337078653E-3</v>
       </c>
       <c r="G15" s="4">
-        <v>0</v>
+        <v>8.1829849240598301E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -803,10 +803,10 @@
         <v>2</v>
       </c>
       <c r="F16" s="4">
-        <v>0</v>
+        <v>1.287948482060718E-2</v>
       </c>
       <c r="G16" s="4">
-        <v>0</v>
+        <v>0.11275461716206089</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -826,10 +826,10 @@
         <v>3</v>
       </c>
       <c r="F17" s="4">
-        <v>0</v>
+        <v>1.2153621779290229E-2</v>
       </c>
       <c r="G17" s="4">
-        <v>0</v>
+        <v>0.1095714892521599</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -849,10 +849,10 @@
         <v>0</v>
       </c>
       <c r="F18" s="4">
-        <v>0</v>
+        <v>3.1645569620253167E-2</v>
       </c>
       <c r="G18" s="4">
-        <v>0</v>
+        <v>0.17505464159416881</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -895,10 +895,10 @@
         <v>2</v>
       </c>
       <c r="F20" s="4">
-        <v>0.23636427246964981</v>
+        <v>0.33722785285285278</v>
       </c>
       <c r="G20" s="4">
-        <v>0.42484844729567151</v>
+        <v>0.47276339548775081</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -918,10 +918,10 @@
         <v>3</v>
       </c>
       <c r="F21" s="4">
-        <v>8.9645587213342592E-2</v>
+        <v>0.13779781068898911</v>
       </c>
       <c r="G21" s="4">
-        <v>0.28567333775926229</v>
+        <v>0.34468764709271288</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="4">
-        <v>0</v>
+        <v>1.0288065843621399E-2</v>
       </c>
       <c r="G22" s="4">
-        <v>0</v>
+        <v>0.1009069945287179</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -964,10 +964,10 @@
         <v>1</v>
       </c>
       <c r="F23" s="4">
-        <v>0</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="G23" s="4">
-        <v>0</v>
+        <v>4.993746088859545E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -987,10 +987,10 @@
         <v>2</v>
       </c>
       <c r="F24" s="4">
-        <v>0.33557686580499141</v>
+        <v>0.23350389321468301</v>
       </c>
       <c r="G24" s="4">
-        <v>0.47219173324137098</v>
+        <v>0.42306007264721751</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1010,10 +1010,10 @@
         <v>3</v>
       </c>
       <c r="F25" s="4">
-        <v>0.1098919095971176</v>
+        <v>9.3931398416886538E-2</v>
       </c>
       <c r="G25" s="4">
-        <v>0.31275498045949091</v>
+        <v>0.29173325283267698</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1033,10 +1033,10 @@
         <v>0</v>
       </c>
       <c r="F26" s="4">
-        <v>0</v>
+        <v>2.3728813559322031E-2</v>
       </c>
       <c r="G26" s="4">
-        <v>0</v>
+        <v>0.15220301234334679</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1056,10 +1056,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="4">
-        <v>0</v>
+        <v>1.11731843575419E-2</v>
       </c>
       <c r="G27" s="4">
-        <v>0</v>
+        <v>0.10511110459344571</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1079,10 +1079,10 @@
         <v>2</v>
       </c>
       <c r="F28" s="4">
-        <v>0.1171131012683876</v>
+        <v>0.15403573629081951</v>
       </c>
       <c r="G28" s="4">
-        <v>0.32155500739327308</v>
+        <v>0.36098300269703082</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1102,10 +1102,10 @@
         <v>3</v>
       </c>
       <c r="F29" s="4">
-        <v>5.9550793323717287E-2</v>
+        <v>0.1185944363103953</v>
       </c>
       <c r="G29" s="4">
-        <v>0.23665269138176559</v>
+        <v>0.32331068028541049</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="F30" s="4">
-        <v>0</v>
+        <v>9.6852300242130755E-3</v>
       </c>
       <c r="G30" s="4">
-        <v>0</v>
+        <v>9.7935827681146184E-2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1148,10 +1148,10 @@
         <v>1</v>
       </c>
       <c r="F31" s="4">
-        <v>0</v>
+        <v>1.461988304093567E-2</v>
       </c>
       <c r="G31" s="4">
-        <v>0</v>
+        <v>0.12002558919165961</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1171,10 +1171,10 @@
         <v>2</v>
       </c>
       <c r="F32" s="4">
-        <v>0.1532841954210423</v>
+        <v>0.11527290936404611</v>
       </c>
       <c r="G32" s="4">
-        <v>0.36026122585585868</v>
+        <v>0.31935100709218772</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1194,10 +1194,10 @@
         <v>3</v>
       </c>
       <c r="F33" s="4">
-        <v>9.8956320061847694E-2</v>
+        <v>6.7157313707451705E-2</v>
       </c>
       <c r="G33" s="4">
-        <v>0.29860336029868262</v>
+        <v>0.25029424468623052</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1217,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="F34" s="4">
-        <v>0</v>
+        <v>3.2504780114722763E-2</v>
       </c>
       <c r="G34" s="4">
-        <v>0</v>
+        <v>0.1773364581365498</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1240,10 +1240,10 @@
         <v>1</v>
       </c>
       <c r="F35" s="4">
-        <v>0</v>
+        <v>2.9411764705882349E-2</v>
       </c>
       <c r="G35" s="4">
-        <v>0</v>
+        <v>0.16895772489817731</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1263,10 +1263,10 @@
         <v>2</v>
       </c>
       <c r="F36" s="4">
-        <v>0.17417257109579731</v>
+        <v>0.14538885065381971</v>
       </c>
       <c r="G36" s="4">
-        <v>0.37925781016832971</v>
+        <v>0.35249245773403581</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1286,10 +1286,10 @@
         <v>3</v>
       </c>
       <c r="F37" s="4">
-        <v>0.1030875223271243</v>
+        <v>0.13487560017459621</v>
       </c>
       <c r="G37" s="4">
-        <v>0.30407315742692398</v>
+        <v>0.34159065070949862</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="F38" s="4">
-        <v>0</v>
+        <v>2.3255813953488368E-2</v>
       </c>
       <c r="G38" s="4">
-        <v>0</v>
+        <v>0.15071489996297349</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1332,10 +1332,10 @@
         <v>1</v>
       </c>
       <c r="F39" s="4">
-        <v>0</v>
+        <v>7.9051383399209481E-3</v>
       </c>
       <c r="G39" s="4">
-        <v>0</v>
+        <v>8.8558721353391615E-2</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1355,10 +1355,10 @@
         <v>2</v>
       </c>
       <c r="F40" s="4">
-        <v>0.1479683765398051</v>
+        <v>0.17974330681224229</v>
       </c>
       <c r="G40" s="4">
-        <v>0.35506863573678188</v>
+        <v>0.38397350229988852</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1378,10 +1378,10 @@
         <v>3</v>
       </c>
       <c r="F41" s="4">
-        <v>0.1228373702422145</v>
+        <v>0.1153987504593899</v>
       </c>
       <c r="G41" s="4">
-        <v>0.32825043901599221</v>
+        <v>0.31950254905368342</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1401,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="F42" s="4">
-        <v>0</v>
+        <v>3.7527593818984538E-2</v>
       </c>
       <c r="G42" s="4">
-        <v>0</v>
+        <v>0.19005071302455531</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1424,10 +1424,10 @@
         <v>1</v>
       </c>
       <c r="F43" s="4">
-        <v>0</v>
+        <v>9.3457943925233638E-3</v>
       </c>
       <c r="G43" s="4">
-        <v>0</v>
+        <v>9.6220842439130816E-2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1447,10 +1447,10 @@
         <v>2</v>
       </c>
       <c r="F44" s="4">
-        <v>0.13412473423104179</v>
+        <v>0.1149349362573486</v>
       </c>
       <c r="G44" s="4">
-        <v>0.34078628185197568</v>
+        <v>0.31894340671170462</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1470,10 +1470,10 @@
         <v>3</v>
       </c>
       <c r="F45" s="4">
-        <v>0.13634925656437841</v>
+        <v>0.13650793650793649</v>
       </c>
       <c r="G45" s="4">
-        <v>0.34315905466520868</v>
+        <v>0.3433271323071943</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1493,10 +1493,10 @@
         <v>0</v>
       </c>
       <c r="F46" s="4">
-        <v>0</v>
+        <v>2.205882352941177E-2</v>
       </c>
       <c r="G46" s="4">
-        <v>0</v>
+        <v>0.1468748849664572</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1539,10 +1539,10 @@
         <v>2</v>
       </c>
       <c r="F48" s="4">
-        <v>0.1178844519966015</v>
+        <v>0.13630342327267661</v>
       </c>
       <c r="G48" s="4">
-        <v>0.32247125139159688</v>
+        <v>0.34311047794671928</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1562,10 +1562,10 @@
         <v>3</v>
       </c>
       <c r="F49" s="4">
-        <v>0.1362389515391649</v>
+        <v>0.1305903398926655</v>
       </c>
       <c r="G49" s="4">
-        <v>0.34304212514307042</v>
+        <v>0.33695178144562998</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1585,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="F50" s="4">
-        <v>0</v>
+        <v>1.319261213720317E-2</v>
       </c>
       <c r="G50" s="4">
-        <v>0</v>
+        <v>0.1140989356751433</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1608,10 +1608,10 @@
         <v>1</v>
       </c>
       <c r="F51" s="4">
-        <v>0</v>
+        <v>3.896103896103896E-2</v>
       </c>
       <c r="G51" s="4">
-        <v>0</v>
+        <v>0.19350213539936811</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1631,10 +1631,10 @@
         <v>2</v>
       </c>
       <c r="F52" s="4">
-        <v>5.8903386379063283E-2</v>
+        <v>4.3105501309835682E-2</v>
       </c>
       <c r="G52" s="4">
-        <v>0.23544378830655541</v>
+        <v>0.2030946012740453</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1654,10 +1654,10 @@
         <v>3</v>
       </c>
       <c r="F53" s="4">
-        <v>7.7411167512690351E-2</v>
+        <v>5.9880239520958077E-2</v>
       </c>
       <c r="G53" s="4">
-        <v>0.26724273359066758</v>
+        <v>0.2372648234270533</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1677,10 +1677,10 @@
         <v>0</v>
       </c>
       <c r="F54" s="4">
-        <v>0</v>
+        <v>1.015228426395939E-2</v>
       </c>
       <c r="G54" s="4">
-        <v>0</v>
+        <v>0.1002457749143731</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1700,10 +1700,10 @@
         <v>1</v>
       </c>
       <c r="F55" s="4">
-        <v>0</v>
+        <v>6.4516129032258056E-3</v>
       </c>
       <c r="G55" s="4">
-        <v>0</v>
+        <v>8.0062410619295865E-2</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -1723,10 +1723,10 @@
         <v>2</v>
       </c>
       <c r="F56" s="4">
-        <v>5.1798339993851833E-2</v>
+        <v>5.4572017875558612E-2</v>
       </c>
       <c r="G56" s="4">
-        <v>0.2216196560951513</v>
+        <v>0.2271429346040689</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1746,10 +1746,10 @@
         <v>3</v>
       </c>
       <c r="F57" s="4">
-        <v>7.0658682634730532E-2</v>
+        <v>7.4845244794597643E-2</v>
       </c>
       <c r="G57" s="4">
-        <v>0.25625384524540312</v>
+        <v>0.26314147169580548</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -1769,10 +1769,10 @@
         <v>0</v>
       </c>
       <c r="F58" s="4">
-        <v>0.66281755196304848</v>
+        <v>0.32775919732441472</v>
       </c>
       <c r="G58" s="4">
-        <v>0.47274776019856513</v>
+        <v>0.46939653374696971</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -1792,10 +1792,10 @@
         <v>1</v>
       </c>
       <c r="F59" s="4">
-        <v>0.32067510548523209</v>
+        <v>0.32727272727272733</v>
       </c>
       <c r="G59" s="4">
-        <v>0.46673609481940359</v>
+        <v>0.46921774183868881</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -1815,10 +1815,10 @@
         <v>2</v>
       </c>
       <c r="F60" s="4">
-        <v>0.1364158529580701</v>
+        <v>6.2935650065663193E-2</v>
       </c>
       <c r="G60" s="4">
-        <v>0.34322961413577402</v>
+        <v>0.2428471824347064</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -1838,10 +1838,10 @@
         <v>3</v>
       </c>
       <c r="F61" s="4">
-        <v>0.17128603104212861</v>
+        <v>9.3220338983050849E-2</v>
       </c>
       <c r="G61" s="4">
-        <v>0.37675871139492401</v>
+        <v>0.29074096268488892</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -1861,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="F62" s="4">
-        <v>0.78217821782178221</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G62" s="4">
-        <v>0.41276561555793728</v>
+        <v>0.47140452079103168</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -1884,10 +1884,10 @@
         <v>1</v>
       </c>
       <c r="F63" s="4">
-        <v>0.5220588235294118</v>
+        <v>0.19298245614035089</v>
       </c>
       <c r="G63" s="4">
-        <v>0.49951317130231743</v>
+        <v>0.39463936418252599</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -1907,10 +1907,10 @@
         <v>2</v>
       </c>
       <c r="F64" s="4">
-        <v>0.1231530139103555</v>
+        <v>7.809330628803246E-2</v>
       </c>
       <c r="G64" s="4">
-        <v>0.3286127646260128</v>
+        <v>0.26831835904580958</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -1930,10 +1930,10 @@
         <v>3</v>
       </c>
       <c r="F65" s="4">
-        <v>0.1539641943734015</v>
+        <v>0.1244377811094453</v>
       </c>
       <c r="G65" s="4">
-        <v>0.36091442368565851</v>
+        <v>0.33008032316695751</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -1953,10 +1953,10 @@
         <v>0</v>
       </c>
       <c r="F66" s="4">
-        <v>0.1324503311258278</v>
+        <v>0.1244635193133047</v>
       </c>
       <c r="G66" s="4">
-        <v>0.33897970575019137</v>
+        <v>0.33010960554556928</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -1976,10 +1976,10 @@
         <v>1</v>
       </c>
       <c r="F67" s="4">
-        <v>0.16058394160583939</v>
+        <v>4.5454545454545463E-2</v>
       </c>
       <c r="G67" s="4">
-        <v>0.36714675445136619</v>
+        <v>0.20829889522526551</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -1999,10 +1999,10 @@
         <v>2</v>
       </c>
       <c r="F68" s="4">
-        <v>5.8367404483293389E-2</v>
+        <v>3.4234995773457309E-2</v>
       </c>
       <c r="G68" s="4">
-        <v>0.234436879729229</v>
+        <v>0.18183223267025209</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2022,10 +2022,10 @@
         <v>3</v>
       </c>
       <c r="F69" s="4">
-        <v>0.10096153846153851</v>
+        <v>7.8144078144078144E-2</v>
       </c>
       <c r="G69" s="4">
-        <v>0.30127778911333269</v>
+        <v>0.26839817658674647</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2045,10 +2045,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="4">
-        <v>9.3057607090103397E-2</v>
+        <v>0.16</v>
       </c>
       <c r="G70" s="4">
-        <v>0.29051314746972701</v>
+        <v>0.3666060555964672</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2068,10 +2068,10 @@
         <v>1</v>
       </c>
       <c r="F71" s="4">
-        <v>0.1098901098901099</v>
+        <v>0.11594202898550721</v>
       </c>
       <c r="G71" s="4">
-        <v>0.31275273562104849</v>
+        <v>0.32015539180252928</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2091,10 +2091,10 @@
         <v>2</v>
       </c>
       <c r="F72" s="4">
-        <v>3.9512619669277632E-2</v>
+        <v>5.5169066494094809E-2</v>
       </c>
       <c r="G72" s="4">
-        <v>0.19481112020659561</v>
+        <v>0.228309966046743</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2114,10 +2114,10 @@
         <v>3</v>
       </c>
       <c r="F73" s="4">
-        <v>8.1931236283833211E-2</v>
+        <v>8.9055793991416304E-2</v>
       </c>
       <c r="G73" s="4">
-        <v>0.27425992927300902</v>
+        <v>0.28482426081353168</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2137,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="F74" s="4">
-        <v>7.7348066298342538E-2</v>
+        <v>7.462686567164179E-3</v>
       </c>
       <c r="G74" s="4">
-        <v>0.26714292604942719</v>
+        <v>8.6063899960229825E-2</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2160,10 +2160,10 @@
         <v>1</v>
       </c>
       <c r="F75" s="4">
-        <v>2.469135802469136E-2</v>
+        <v>0.04</v>
       </c>
       <c r="G75" s="4">
-        <v>0.15518277888859919</v>
+        <v>0.19595917942265431</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2183,10 +2183,10 @@
         <v>2</v>
       </c>
       <c r="F76" s="4">
-        <v>2.8053204353083439E-2</v>
+        <v>1.431639226914817E-2</v>
       </c>
       <c r="G76" s="4">
-        <v>0.16512486814107549</v>
+        <v>0.11879155349411021</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2206,10 +2206,10 @@
         <v>3</v>
       </c>
       <c r="F77" s="4">
-        <v>7.2625698324022353E-2</v>
+        <v>4.2253521126760563E-2</v>
       </c>
       <c r="G77" s="4">
-        <v>0.2595211094823896</v>
+        <v>0.20116699798712251</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2229,10 +2229,10 @@
         <v>0</v>
       </c>
       <c r="F78" s="4">
-        <v>4.1769041769041768E-2</v>
+        <v>8.9285714285714288E-2</v>
       </c>
       <c r="G78" s="4">
-        <v>0.2000609630056244</v>
+        <v>0.28515570397627338</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2252,10 +2252,10 @@
         <v>1</v>
       </c>
       <c r="F79" s="4">
-        <v>7.2727272727272724E-2</v>
+        <v>6.9767441860465115E-2</v>
       </c>
       <c r="G79" s="4">
-        <v>0.25968830649246732</v>
+        <v>0.25475467790937961</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2275,10 +2275,10 @@
         <v>2</v>
       </c>
       <c r="F80" s="4">
-        <v>1.9210876311511749E-2</v>
+        <v>2.0914668153931958E-2</v>
       </c>
       <c r="G80" s="4">
-        <v>0.13726550383419561</v>
+        <v>0.14309872399830431</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2298,10 +2298,10 @@
         <v>3</v>
       </c>
       <c r="F81" s="4">
-        <v>5.0995024875621887E-2</v>
+        <v>6.7256637168141592E-2</v>
       </c>
       <c r="G81" s="4">
-        <v>0.21998757308892841</v>
+        <v>0.25046592966903608</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="F82" s="4">
-        <v>0</v>
+        <v>3.3898305084745763E-2</v>
       </c>
       <c r="G82" s="4">
-        <v>0</v>
+        <v>0.1809674280005307</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -2344,10 +2344,10 @@
         <v>1</v>
       </c>
       <c r="F83" s="4">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="G83" s="4">
-        <v>0.32496153618543838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -2367,10 +2367,10 @@
         <v>2</v>
       </c>
       <c r="F84" s="4">
-        <v>1.972685887708649E-2</v>
+        <v>1.4459665144596651E-2</v>
       </c>
       <c r="G84" s="4">
-        <v>0.13906009462074309</v>
+        <v>0.11937580671351621</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -2390,10 +2390,10 @@
         <v>3</v>
       </c>
       <c r="F85" s="4">
-        <v>5.2631578947368418E-2</v>
+        <v>3.5087719298245612E-2</v>
       </c>
       <c r="G85" s="4">
-        <v>0.22329687826943609</v>
+        <v>0.1840015523105529</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -2413,10 +2413,10 @@
         <v>0</v>
       </c>
       <c r="F86" s="4">
-        <v>4.5112781954887222E-2</v>
+        <v>0</v>
       </c>
       <c r="G86" s="4">
-        <v>0.20755148483973321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -2436,10 +2436,10 @@
         <v>1</v>
       </c>
       <c r="F87" s="4">
-        <v>0</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="G87" s="4">
-        <v>0</v>
+        <v>0.25753937681885641</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -2459,10 +2459,10 @@
         <v>2</v>
       </c>
       <c r="F88" s="4">
-        <v>1.4627011214041931E-2</v>
+        <v>2.368421052631579E-2</v>
       </c>
       <c r="G88" s="4">
-        <v>0.1200544116514933</v>
+        <v>0.15206337066519651</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -2482,10 +2482,10 @@
         <v>3</v>
       </c>
       <c r="F89" s="4">
-        <v>3.6900369003690037E-2</v>
+        <v>4.3956043956043959E-2</v>
       </c>
       <c r="G89" s="4">
-        <v>0.1885171922427277</v>
+        <v>0.2049973418261278</v>
       </c>
     </row>
   </sheetData>
